--- a/biology/Zoologie/Idiocerinae/Idiocerinae.xlsx
+++ b/biology/Zoologie/Idiocerinae/Idiocerinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Idiocerinae sont une sous-famille d'insectes de l'ordre des Hémiptères (les hémiptères sont caractérisés par leurs deux paires d'ailes dont l'une, en partie cornée, est transformée en hémiélytre), de la famille des Cicadellidae.
 Ces insectes communément appelés cicadelles, sont des insectes sauteurs et piqueurs et ils se nourrissent de la sève des végétaux grâce à leur rostre.
@@ -512,9 +524,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Fauna Europaea                                      (1er nov 2013)[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Fauna Europaea                                      (1er nov 2013)
 Acericerus
 Balcanocerus
 Bugraia
